--- a/Attachment. spectra.xlsx
+++ b/Attachment. spectra.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makhmutov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makhmutov\Documents\diplom_b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C4C522-035C-43A4-9272-444D6CBCE257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5697CAE7-BE1E-4780-8DBD-0129C31AC57C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inf" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
   <si>
     <t>10.1002/adfm.201001448</t>
   </si>
@@ -144,6 +144,9 @@
   <si>
     <t>close to</t>
   </si>
+  <si>
+    <t>+</t>
+  </si>
 </sst>
 </file>
 
@@ -213,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +304,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -604,10 +613,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -647,8 +654,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -685,6 +690,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -968,7 +982,7 @@
   <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,39 +1021,39 @@
       <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="46">
+      <c r="V1" s="44">
         <f>AVERAGE(A1:R1)</f>
         <v>204</v>
       </c>
-      <c r="W1" s="46">
+      <c r="W1" s="44">
         <f>MAX(A1:R1)</f>
         <v>204</v>
       </c>
-      <c r="X1" s="46">
+      <c r="X1" s="44">
         <f>MIN(A1:R1)</f>
         <v>204</v>
       </c>
-      <c r="Y1" s="46">
+      <c r="Y1" s="44">
         <f>W1-X1</f>
         <v>0</v>
       </c>
-      <c r="Z1" s="46">
+      <c r="Z1" s="44">
         <f>W1-V1</f>
         <v>0</v>
       </c>
-      <c r="AA1" s="46">
+      <c r="AA1" s="44">
         <f>V1-X1</f>
         <v>0</v>
       </c>
-      <c r="AB1" s="46">
+      <c r="AB1" s="44">
         <f>MAX(Z1:AA1)</f>
         <v>0</v>
       </c>
-      <c r="AC1" s="46">
+      <c r="AC1" s="44">
         <f>V1+AB1</f>
         <v>204</v>
       </c>
-      <c r="AD1" s="46">
+      <c r="AD1" s="44">
         <f>V1-AB1</f>
         <v>204</v>
       </c>
@@ -1072,39 +1086,39 @@
       <c r="U2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="46">
+      <c r="V2" s="44">
         <f t="shared" ref="V2:V17" si="0">AVERAGE(A2:R2)</f>
         <v>220</v>
       </c>
-      <c r="W2" s="46">
+      <c r="W2" s="44">
         <f t="shared" ref="W2:W17" si="1">MAX(A2:R2)</f>
         <v>220</v>
       </c>
-      <c r="X2" s="46">
+      <c r="X2" s="44">
         <f t="shared" ref="X2:X17" si="2">MIN(A2:R2)</f>
         <v>220</v>
       </c>
-      <c r="Y2" s="46">
+      <c r="Y2" s="44">
         <f t="shared" ref="Y2:Y17" si="3">W2-X2</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="46">
+      <c r="Z2" s="44">
         <f t="shared" ref="Z2:Z17" si="4">W2-V2</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="46">
+      <c r="AA2" s="44">
         <f t="shared" ref="AA2:AA17" si="5">V2-X2</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="46">
+      <c r="AB2" s="44">
         <f t="shared" ref="AB2:AB17" si="6">MAX(Z2:AA2)</f>
         <v>0</v>
       </c>
-      <c r="AC2" s="46">
+      <c r="AC2" s="44">
         <f t="shared" ref="AC2:AC17" si="7">V2+AB2</f>
         <v>220</v>
       </c>
-      <c r="AD2" s="46">
+      <c r="AD2" s="44">
         <f t="shared" ref="AD2:AD17" si="8">V2-AB2</f>
         <v>220</v>
       </c>
@@ -1141,39 +1155,39 @@
       <c r="U3" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="46">
+      <c r="V3" s="44">
         <f t="shared" si="0"/>
         <v>266</v>
       </c>
-      <c r="W3" s="46">
+      <c r="W3" s="44">
         <f t="shared" si="1"/>
         <v>278</v>
       </c>
-      <c r="X3" s="46">
+      <c r="X3" s="44">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="Y3" s="46">
+      <c r="Y3" s="44">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="Z3" s="46">
+      <c r="Z3" s="44">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AA3" s="46">
+      <c r="AA3" s="44">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AB3" s="46">
+      <c r="AB3" s="44">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="AC3" s="46">
+      <c r="AC3" s="44">
         <f t="shared" si="7"/>
         <v>278</v>
       </c>
-      <c r="AD3" s="46">
+      <c r="AD3" s="44">
         <f t="shared" si="8"/>
         <v>254</v>
       </c>
@@ -1226,39 +1240,39 @@
       <c r="U4" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="46">
+      <c r="V4" s="44">
         <f t="shared" si="0"/>
         <v>298.90909090909093</v>
       </c>
-      <c r="W4" s="46">
+      <c r="W4" s="44">
         <f t="shared" si="1"/>
         <v>310</v>
       </c>
-      <c r="X4" s="46">
+      <c r="X4" s="44">
         <f t="shared" si="2"/>
         <v>290</v>
       </c>
-      <c r="Y4" s="46">
+      <c r="Y4" s="44">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Z4" s="46">
+      <c r="Z4" s="44">
         <f t="shared" si="4"/>
         <v>11.090909090909065</v>
       </c>
-      <c r="AA4" s="46">
+      <c r="AA4" s="44">
         <f t="shared" si="5"/>
         <v>8.9090909090909349</v>
       </c>
-      <c r="AB4" s="46">
+      <c r="AB4" s="44">
         <f t="shared" si="6"/>
         <v>11.090909090909065</v>
       </c>
-      <c r="AC4" s="46">
+      <c r="AC4" s="44">
         <f t="shared" si="7"/>
         <v>310</v>
       </c>
-      <c r="AD4" s="46">
+      <c r="AD4" s="44">
         <f t="shared" si="8"/>
         <v>287.81818181818187</v>
       </c>
@@ -1297,39 +1311,39 @@
       <c r="U5" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="46">
+      <c r="V5" s="44">
         <f t="shared" si="0"/>
         <v>321.25</v>
       </c>
-      <c r="W5" s="46">
+      <c r="W5" s="44">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="X5" s="46">
+      <c r="X5" s="44">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-      <c r="Y5" s="46">
+      <c r="Y5" s="44">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="Z5" s="46">
+      <c r="Z5" s="44">
         <f t="shared" si="4"/>
         <v>8.75</v>
       </c>
-      <c r="AA5" s="46">
+      <c r="AA5" s="44">
         <f t="shared" si="5"/>
         <v>6.25</v>
       </c>
-      <c r="AB5" s="46">
+      <c r="AB5" s="44">
         <f t="shared" si="6"/>
         <v>8.75</v>
       </c>
-      <c r="AC5" s="46">
+      <c r="AC5" s="44">
         <f t="shared" si="7"/>
         <v>330</v>
       </c>
-      <c r="AD5" s="46">
+      <c r="AD5" s="44">
         <f t="shared" si="8"/>
         <v>312.5</v>
       </c>
@@ -1361,39 +1375,39 @@
         <v>24</v>
       </c>
       <c r="T6" s="15"/>
-      <c r="V6" s="46">
+      <c r="V6" s="44">
         <f t="shared" si="0"/>
         <v>355</v>
       </c>
-      <c r="W6" s="46">
+      <c r="W6" s="44">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="X6" s="46">
+      <c r="X6" s="44">
         <f t="shared" si="2"/>
         <v>350</v>
       </c>
-      <c r="Y6" s="46">
+      <c r="Y6" s="44">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="Z6" s="46">
+      <c r="Z6" s="44">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AA6" s="46">
+      <c r="AA6" s="44">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AB6" s="46">
+      <c r="AB6" s="44">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="AC6" s="46">
+      <c r="AC6" s="44">
         <f t="shared" si="7"/>
         <v>360</v>
       </c>
-      <c r="AD6" s="46">
+      <c r="AD6" s="44">
         <f t="shared" si="8"/>
         <v>350</v>
       </c>
@@ -1440,39 +1454,39 @@
       <c r="S7" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="46">
+      <c r="V7" s="44">
         <f t="shared" si="0"/>
         <v>376.7</v>
       </c>
-      <c r="W7" s="46">
+      <c r="W7" s="44">
         <f t="shared" si="1"/>
         <v>385</v>
       </c>
-      <c r="X7" s="46">
+      <c r="X7" s="44">
         <f t="shared" si="2"/>
         <v>370</v>
       </c>
-      <c r="Y7" s="46">
+      <c r="Y7" s="44">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="Z7" s="46">
+      <c r="Z7" s="44">
         <f t="shared" si="4"/>
         <v>8.3000000000000114</v>
       </c>
-      <c r="AA7" s="46">
+      <c r="AA7" s="44">
         <f t="shared" si="5"/>
         <v>6.6999999999999886</v>
       </c>
-      <c r="AB7" s="46">
+      <c r="AB7" s="44">
         <f t="shared" si="6"/>
         <v>8.3000000000000114</v>
       </c>
-      <c r="AC7" s="46">
+      <c r="AC7" s="44">
         <f t="shared" si="7"/>
         <v>385</v>
       </c>
-      <c r="AD7" s="46">
+      <c r="AD7" s="44">
         <f t="shared" si="8"/>
         <v>368.4</v>
       </c>
@@ -1507,39 +1521,39 @@
       <c r="S8" t="s">
         <v>25</v>
       </c>
-      <c r="V8" s="46">
+      <c r="V8" s="44">
         <f t="shared" si="0"/>
         <v>396.75</v>
       </c>
-      <c r="W8" s="46">
+      <c r="W8" s="44">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="X8" s="46">
+      <c r="X8" s="44">
         <f t="shared" si="2"/>
         <v>390</v>
       </c>
-      <c r="Y8" s="46">
+      <c r="Y8" s="44">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="Z8" s="46">
+      <c r="Z8" s="44">
         <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
-      <c r="AA8" s="46">
+      <c r="AA8" s="44">
         <f t="shared" si="5"/>
         <v>6.75</v>
       </c>
-      <c r="AB8" s="46">
+      <c r="AB8" s="44">
         <f t="shared" si="6"/>
         <v>6.75</v>
       </c>
-      <c r="AC8" s="46">
+      <c r="AC8" s="44">
         <f t="shared" si="7"/>
         <v>403.5</v>
       </c>
-      <c r="AD8" s="46">
+      <c r="AD8" s="44">
         <f t="shared" si="8"/>
         <v>390</v>
       </c>
@@ -1576,39 +1590,39 @@
       <c r="S9" t="s">
         <v>25</v>
       </c>
-      <c r="V9" s="46">
+      <c r="V9" s="44">
         <f t="shared" si="0"/>
         <v>431.4</v>
       </c>
-      <c r="W9" s="46">
+      <c r="W9" s="44">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="X9" s="46">
+      <c r="X9" s="44">
         <f t="shared" si="2"/>
         <v>425</v>
       </c>
-      <c r="Y9" s="46">
+      <c r="Y9" s="44">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="Z9" s="46">
+      <c r="Z9" s="44">
         <f t="shared" si="4"/>
         <v>8.6000000000000227</v>
       </c>
-      <c r="AA9" s="46">
+      <c r="AA9" s="44">
         <f t="shared" si="5"/>
         <v>6.3999999999999773</v>
       </c>
-      <c r="AB9" s="46">
+      <c r="AB9" s="44">
         <f t="shared" si="6"/>
         <v>8.6000000000000227</v>
       </c>
-      <c r="AC9" s="46">
+      <c r="AC9" s="44">
         <f t="shared" si="7"/>
         <v>440</v>
       </c>
-      <c r="AD9" s="46">
+      <c r="AD9" s="44">
         <f t="shared" si="8"/>
         <v>422.79999999999995</v>
       </c>
@@ -1643,39 +1657,39 @@
       <c r="S10" t="s">
         <v>25</v>
       </c>
-      <c r="V10" s="46">
+      <c r="V10" s="44">
         <f t="shared" si="0"/>
         <v>464.5</v>
       </c>
-      <c r="W10" s="46">
+      <c r="W10" s="44">
         <f t="shared" si="1"/>
         <v>467</v>
       </c>
-      <c r="X10" s="46">
+      <c r="X10" s="44">
         <f t="shared" si="2"/>
         <v>463</v>
       </c>
-      <c r="Y10" s="46">
+      <c r="Y10" s="44">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="Z10" s="46">
+      <c r="Z10" s="44">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="AA10" s="46">
+      <c r="AA10" s="44">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="AB10" s="46">
+      <c r="AB10" s="44">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="AC10" s="46">
+      <c r="AC10" s="44">
         <f t="shared" si="7"/>
         <v>467</v>
       </c>
-      <c r="AD10" s="46">
+      <c r="AD10" s="44">
         <f t="shared" si="8"/>
         <v>462</v>
       </c>
@@ -1730,39 +1744,39 @@
       <c r="S11" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="46">
+      <c r="V11" s="44">
         <f t="shared" si="0"/>
         <v>480.85714285714283</v>
       </c>
-      <c r="W11" s="46">
+      <c r="W11" s="44">
         <f t="shared" si="1"/>
         <v>490</v>
       </c>
-      <c r="X11" s="46">
+      <c r="X11" s="44">
         <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="Y11" s="46">
+      <c r="Y11" s="44">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="Z11" s="46">
+      <c r="Z11" s="44">
         <f t="shared" si="4"/>
         <v>9.1428571428571672</v>
       </c>
-      <c r="AA11" s="46">
+      <c r="AA11" s="44">
         <f t="shared" si="5"/>
         <v>5.8571428571428328</v>
       </c>
-      <c r="AB11" s="46">
+      <c r="AB11" s="44">
         <f t="shared" si="6"/>
         <v>9.1428571428571672</v>
       </c>
-      <c r="AC11" s="46">
+      <c r="AC11" s="44">
         <f t="shared" si="7"/>
         <v>490</v>
       </c>
-      <c r="AD11" s="46">
+      <c r="AD11" s="44">
         <f t="shared" si="8"/>
         <v>471.71428571428567</v>
       </c>
@@ -1797,39 +1811,39 @@
       <c r="S12" t="s">
         <v>25</v>
       </c>
-      <c r="V12" s="46">
+      <c r="V12" s="44">
         <f t="shared" si="0"/>
         <v>497.5</v>
       </c>
-      <c r="W12" s="46">
+      <c r="W12" s="44">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="X12" s="46">
+      <c r="X12" s="44">
         <f t="shared" si="2"/>
         <v>495</v>
       </c>
-      <c r="Y12" s="46">
+      <c r="Y12" s="44">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="Z12" s="46">
+      <c r="Z12" s="44">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="AA12" s="46">
+      <c r="AA12" s="44">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="AB12" s="46">
+      <c r="AB12" s="44">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="AC12" s="46">
+      <c r="AC12" s="44">
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
-      <c r="AD12" s="46">
+      <c r="AD12" s="44">
         <f t="shared" si="8"/>
         <v>495</v>
       </c>
@@ -1860,39 +1874,39 @@
       <c r="S13" t="s">
         <v>24</v>
       </c>
-      <c r="V13" s="46">
+      <c r="V13" s="44">
         <f t="shared" si="0"/>
         <v>555</v>
       </c>
-      <c r="W13" s="46">
+      <c r="W13" s="44">
         <f t="shared" si="1"/>
         <v>560</v>
       </c>
-      <c r="X13" s="46">
+      <c r="X13" s="44">
         <f t="shared" si="2"/>
         <v>550</v>
       </c>
-      <c r="Y13" s="46">
+      <c r="Y13" s="44">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="Z13" s="46">
+      <c r="Z13" s="44">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AA13" s="46">
+      <c r="AA13" s="44">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AB13" s="46">
+      <c r="AB13" s="44">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="AC13" s="46">
+      <c r="AC13" s="44">
         <f t="shared" si="7"/>
         <v>560</v>
       </c>
-      <c r="AD13" s="46">
+      <c r="AD13" s="44">
         <f t="shared" si="8"/>
         <v>550</v>
       </c>
@@ -1951,39 +1965,39 @@
       <c r="S14" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="46">
+      <c r="V14" s="44">
         <f t="shared" si="0"/>
         <v>580.5625</v>
       </c>
-      <c r="W14" s="46">
+      <c r="W14" s="44">
         <f t="shared" si="1"/>
         <v>588</v>
       </c>
-      <c r="X14" s="46">
+      <c r="X14" s="44">
         <f t="shared" si="2"/>
         <v>574</v>
       </c>
-      <c r="Y14" s="46">
+      <c r="Y14" s="44">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="Z14" s="46">
+      <c r="Z14" s="44">
         <f t="shared" si="4"/>
         <v>7.4375</v>
       </c>
-      <c r="AA14" s="46">
+      <c r="AA14" s="44">
         <f t="shared" si="5"/>
         <v>6.5625</v>
       </c>
-      <c r="AB14" s="46">
+      <c r="AB14" s="44">
         <f t="shared" si="6"/>
         <v>7.4375</v>
       </c>
-      <c r="AC14" s="46">
+      <c r="AC14" s="44">
         <f t="shared" si="7"/>
         <v>588</v>
       </c>
-      <c r="AD14" s="46">
+      <c r="AD14" s="44">
         <f t="shared" si="8"/>
         <v>573.125</v>
       </c>
@@ -2022,39 +2036,39 @@
       <c r="S15" t="s">
         <v>27</v>
       </c>
-      <c r="V15" s="46">
+      <c r="V15" s="44">
         <f t="shared" si="0"/>
         <v>594</v>
       </c>
-      <c r="W15" s="46">
+      <c r="W15" s="44">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="X15" s="46">
+      <c r="X15" s="44">
         <f t="shared" si="2"/>
         <v>590</v>
       </c>
-      <c r="Y15" s="46">
+      <c r="Y15" s="44">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="Z15" s="46">
+      <c r="Z15" s="44">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="AA15" s="46">
+      <c r="AA15" s="44">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="AB15" s="46">
+      <c r="AB15" s="44">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="AC15" s="46">
+      <c r="AC15" s="44">
         <f t="shared" si="7"/>
         <v>600</v>
       </c>
-      <c r="AD15" s="46">
+      <c r="AD15" s="44">
         <f t="shared" si="8"/>
         <v>588</v>
       </c>
@@ -2106,43 +2120,43 @@
       <c r="R16" s="12">
         <v>623</v>
       </c>
-      <c r="S16" s="91" t="s">
+      <c r="S16" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="T16" s="90"/>
-      <c r="V16" s="46">
+      <c r="T16" s="86"/>
+      <c r="V16" s="44">
         <f t="shared" si="0"/>
         <v>624.42857142857144</v>
       </c>
-      <c r="W16" s="46">
+      <c r="W16" s="44">
         <f t="shared" si="1"/>
         <v>635</v>
       </c>
-      <c r="X16" s="46">
+      <c r="X16" s="44">
         <f t="shared" si="2"/>
         <v>610</v>
       </c>
-      <c r="Y16" s="46">
+      <c r="Y16" s="44">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="Z16" s="46">
+      <c r="Z16" s="44">
         <f t="shared" si="4"/>
         <v>10.571428571428555</v>
       </c>
-      <c r="AA16" s="46">
+      <c r="AA16" s="44">
         <f t="shared" si="5"/>
         <v>14.428571428571445</v>
       </c>
-      <c r="AB16" s="46">
+      <c r="AB16" s="44">
         <f t="shared" si="6"/>
         <v>14.428571428571445</v>
       </c>
-      <c r="AC16" s="46">
+      <c r="AC16" s="44">
         <f t="shared" si="7"/>
         <v>638.85714285714289</v>
       </c>
-      <c r="AD16" s="46">
+      <c r="AD16" s="44">
         <f t="shared" si="8"/>
         <v>610</v>
       </c>
@@ -2180,43 +2194,43 @@
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="90" t="s">
+      <c r="S17" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="T17" s="90"/>
-      <c r="V17" s="46">
+      <c r="T17" s="86"/>
+      <c r="V17" s="44">
         <f t="shared" si="0"/>
         <v>647.57142857142856</v>
       </c>
-      <c r="W17" s="46">
+      <c r="W17" s="44">
         <f t="shared" si="1"/>
         <v>658</v>
       </c>
-      <c r="X17" s="46">
+      <c r="X17" s="44">
         <f t="shared" si="2"/>
         <v>638</v>
       </c>
-      <c r="Y17" s="46">
+      <c r="Y17" s="44">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Z17" s="46">
+      <c r="Z17" s="44">
         <f t="shared" si="4"/>
         <v>10.428571428571445</v>
       </c>
-      <c r="AA17" s="46">
+      <c r="AA17" s="44">
         <f t="shared" si="5"/>
         <v>9.5714285714285552</v>
       </c>
-      <c r="AB17" s="46">
+      <c r="AB17" s="44">
         <f t="shared" si="6"/>
         <v>10.428571428571445</v>
       </c>
-      <c r="AC17" s="46">
+      <c r="AC17" s="44">
         <f t="shared" si="7"/>
         <v>658</v>
       </c>
-      <c r="AD17" s="46">
+      <c r="AD17" s="44">
         <f t="shared" si="8"/>
         <v>637.14285714285711</v>
       </c>
@@ -2292,7 +2306,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:J34"/>
+      <selection activeCell="F3" sqref="F3:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,32 +2316,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54">
+      <c r="A2" s="52">
         <v>1</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="52">
         <v>3</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="52">
         <v>4</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="52">
         <v>5</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="52">
         <v>6</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="52">
         <v>7</v>
       </c>
     </row>
@@ -2337,7 +2351,7 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
-      <c r="D3" s="59"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="20">
         <v>207</v>
       </c>
@@ -2362,7 +2376,7 @@
       <c r="A4" s="8"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="60"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="21"/>
       <c r="F4" s="8"/>
       <c r="I4">
@@ -2383,7 +2397,7 @@
       <c r="A5" s="5"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
-      <c r="D5" s="61"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="22"/>
       <c r="F5" s="5"/>
       <c r="I5">
@@ -2404,14 +2418,14 @@
       <c r="A6" s="10">
         <v>313</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47">
         <v>290</v>
       </c>
       <c r="D6" s="11">
         <v>308</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="50">
         <v>285</v>
       </c>
       <c r="F6" s="12"/>
@@ -2435,7 +2449,7 @@
         <v>315</v>
       </c>
       <c r="C7" s="23"/>
-      <c r="D7" s="62"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="23">
         <v>316</v>
       </c>
@@ -2460,7 +2474,7 @@
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
-      <c r="D8" s="61">
+      <c r="D8" s="59">
         <v>351</v>
       </c>
       <c r="E8" s="22"/>
@@ -2480,14 +2494,14 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="49">
+      <c r="B9" s="47">
         <v>368</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="47">
         <v>370</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="49">
+      <c r="E9" s="47">
         <v>368</v>
       </c>
       <c r="F9" s="12"/>
@@ -2505,7 +2519,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="62"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="23"/>
       <c r="F10" s="2"/>
       <c r="I10">
@@ -2524,7 +2538,7 @@
         <v>431</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="D11" s="62"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="23">
         <v>433</v>
       </c>
@@ -2547,7 +2561,7 @@
       <c r="C12" s="23">
         <v>461</v>
       </c>
-      <c r="D12" s="62"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="23"/>
       <c r="F12" s="2"/>
       <c r="I12">
@@ -2562,12 +2576,12 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
-      <c r="B13" s="49">
+      <c r="B13" s="47">
         <v>488</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="52">
+      <c r="E13" s="50">
         <v>491</v>
       </c>
       <c r="F13" s="12"/>
@@ -2585,7 +2599,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="62"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="23"/>
       <c r="F14" s="2">
         <v>500</v>
@@ -2599,33 +2613,33 @@
       <c r="K14" t="s">
         <v>25</v>
       </c>
-      <c r="T14" s="66"/>
+      <c r="T14" s="64"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45">
+      <c r="A15" s="43"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43">
         <v>549</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J15" s="43">
         <v>521</v>
       </c>
-      <c r="K15" s="45" t="s">
+      <c r="K15" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="T15" s="65"/>
+      <c r="T15" s="63"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="22"/>
       <c r="F16" s="5"/>
       <c r="I16">
@@ -2642,14 +2656,14 @@
       <c r="A17" s="10">
         <v>579</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="47">
         <v>573</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="47">
         <v>578</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="49">
+      <c r="E17" s="47">
         <v>574</v>
       </c>
       <c r="F17" s="12">
@@ -2669,7 +2683,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="63">
+      <c r="D18" s="61">
         <v>593</v>
       </c>
       <c r="E18" s="24"/>
@@ -2688,14 +2702,14 @@
       <c r="A19" s="10">
         <v>624</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="47">
         <v>618</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="47">
         <v>620</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="49">
+      <c r="E19" s="47">
         <v>616</v>
       </c>
       <c r="F19" s="12">
@@ -2708,10 +2722,10 @@
       <c r="J19" s="15">
         <v>610</v>
       </c>
-      <c r="K19" s="44" t="s">
+      <c r="K19" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="44"/>
+      <c r="L19" s="42"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -2721,7 +2735,7 @@
         <v>654</v>
       </c>
       <c r="C20" s="25"/>
-      <c r="D20" s="64">
+      <c r="D20" s="62">
         <v>639</v>
       </c>
       <c r="E20" s="25">
@@ -2735,70 +2749,70 @@
       <c r="J20" s="15">
         <v>637.14285714285711</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="K20" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="44"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="52" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="79">
+      <c r="B23" s="75">
         <v>1</v>
       </c>
-      <c r="C23" s="79">
+      <c r="C23" s="75">
         <v>3</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="75">
         <v>4</v>
       </c>
-      <c r="E23" s="79">
+      <c r="E23" s="75">
         <v>6</v>
       </c>
-      <c r="F23" s="79">
+      <c r="F23" s="75">
         <v>7</v>
       </c>
-      <c r="G23" s="65"/>
+      <c r="G23" s="63"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="91">
         <f>AVERAGE(B24:F24)</f>
         <v>206.33333333333334</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="95">
         <v>201</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21">
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92">
         <v>207</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="96">
         <v>211</v>
       </c>
-      <c r="G24" s="69">
+      <c r="G24" s="97">
         <v>3</v>
       </c>
-      <c r="I24" s="75"/>
-      <c r="J24" s="72">
+      <c r="I24" s="71"/>
+      <c r="J24" s="68">
         <v>2</v>
       </c>
     </row>
@@ -2810,63 +2824,63 @@
       <c r="B25" s="10">
         <v>313</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49">
+      <c r="C25" s="47"/>
+      <c r="D25" s="47">
         <v>290</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="50">
         <v>285</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="69">
+      <c r="F25" s="47"/>
+      <c r="G25" s="65">
         <v>3</v>
       </c>
-      <c r="I25" s="76"/>
-      <c r="J25" s="73">
+      <c r="I25" s="72"/>
+      <c r="J25" s="69">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="91">
         <f t="shared" si="0"/>
         <v>315.5</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="23">
+      <c r="B26" s="95"/>
+      <c r="C26" s="92">
         <v>315</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23">
+      <c r="D26" s="92"/>
+      <c r="E26" s="92">
         <v>316</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="70">
+      <c r="F26" s="96"/>
+      <c r="G26" s="97">
         <v>2</v>
       </c>
-      <c r="I26" s="77"/>
-      <c r="J26" s="73">
+      <c r="I26" s="73"/>
+      <c r="J26" s="69">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="91">
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
-      <c r="B27" s="67">
+      <c r="B27" s="98">
         <v>365</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="68">
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="99">
         <v>347</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="97">
         <v>2</v>
       </c>
-      <c r="I27" s="78"/>
-      <c r="J27" s="74">
+      <c r="I27" s="74"/>
+      <c r="J27" s="70">
         <v>5</v>
       </c>
     </row>
@@ -2876,17 +2890,17 @@
         <v>368.66666666666669</v>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="49">
+      <c r="C28" s="47">
         <v>368</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="47">
         <v>370</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="47">
         <v>368</v>
       </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="69">
+      <c r="F28" s="47"/>
+      <c r="G28" s="65">
         <v>3</v>
       </c>
       <c r="I28" s="15"/>
@@ -2896,7 +2910,7 @@
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="23">
         <v>431</v>
       </c>
@@ -2904,26 +2918,26 @@
       <c r="E29" s="23">
         <v>433</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="70">
+      <c r="F29" s="28"/>
+      <c r="G29" s="66">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="91">
         <f t="shared" si="0"/>
         <v>461.5</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="95">
         <v>462</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23">
+      <c r="C30" s="92"/>
+      <c r="D30" s="92">
         <v>461</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="70">
+      <c r="E30" s="92"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="97">
         <v>2</v>
       </c>
     </row>
@@ -2933,15 +2947,15 @@
         <v>489.5</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="49">
+      <c r="C31" s="47">
         <v>488</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="52">
+      <c r="D31" s="47"/>
+      <c r="E31" s="50">
         <v>491</v>
       </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="70">
+      <c r="F31" s="47"/>
+      <c r="G31" s="66">
         <v>2</v>
       </c>
     </row>
@@ -2953,19 +2967,19 @@
       <c r="B32" s="10">
         <v>579</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="47">
         <v>573</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="47">
         <v>578</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="47">
         <v>574</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="47">
         <v>580</v>
       </c>
-      <c r="G32" s="71">
+      <c r="G32" s="67">
         <v>5</v>
       </c>
     </row>
@@ -2977,19 +2991,19 @@
       <c r="B33" s="10">
         <v>624</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="47">
         <v>618</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="47">
         <v>620</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="47">
         <v>616</v>
       </c>
-      <c r="F33" s="49">
+      <c r="F33" s="47">
         <v>620</v>
       </c>
-      <c r="G33" s="71">
+      <c r="G33" s="67">
         <v>5</v>
       </c>
     </row>
@@ -2998,7 +3012,7 @@
         <f t="shared" si="0"/>
         <v>654.33333333333337</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="27">
         <v>655</v>
       </c>
       <c r="C34" s="25">
@@ -3008,8 +3022,8 @@
       <c r="E34" s="25">
         <v>654</v>
       </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="69">
+      <c r="F34" s="29"/>
+      <c r="G34" s="65">
         <v>3</v>
       </c>
     </row>
@@ -3026,8 +3040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3038,36 +3052,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88">
+      <c r="A2" s="84">
         <v>1</v>
       </c>
-      <c r="B2" s="88">
+      <c r="B2" s="84">
         <v>2</v>
       </c>
-      <c r="C2" s="88">
+      <c r="C2" s="84">
         <v>3</v>
       </c>
-      <c r="D2" s="88">
+      <c r="D2" s="84">
         <v>4</v>
       </c>
-      <c r="E2" s="88">
+      <c r="E2" s="84">
         <v>5</v>
       </c>
-      <c r="F2" s="88">
+      <c r="F2" s="84">
         <v>6</v>
       </c>
-      <c r="G2" s="88">
+      <c r="G2" s="84">
         <v>7</v>
       </c>
     </row>
@@ -3075,7 +3089,7 @@
       <c r="A3" s="20">
         <v>204</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="30">
         <v>203</v>
       </c>
       <c r="C3" s="8">
@@ -3084,7 +3098,7 @@
       <c r="D3" s="20">
         <v>195</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="36">
         <v>206</v>
       </c>
       <c r="F3" s="20"/>
@@ -3107,12 +3121,12 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="33"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="8"/>
       <c r="D4" s="21">
         <v>241</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="21"/>
       <c r="G4" s="8"/>
       <c r="J4">
@@ -3131,10 +3145,10 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
-      <c r="B5" s="34"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="5"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="40"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="22"/>
       <c r="G5" s="5"/>
       <c r="J5">
@@ -3152,18 +3166,18 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49">
+      <c r="A6" s="47">
         <v>285</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="11">
         <v>302</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="47">
         <v>287</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="52">
+      <c r="F6" s="50">
         <v>290</v>
       </c>
       <c r="G6" s="12">
@@ -3187,10 +3201,10 @@
       <c r="A7" s="23">
         <v>321</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="2"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="41"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="23">
         <v>316</v>
       </c>
@@ -3211,14 +3225,14 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
-      <c r="B8" s="34">
+      <c r="B8" s="32">
         <v>340</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="22">
         <v>334</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="38">
         <v>339</v>
       </c>
       <c r="F8" s="22"/>
@@ -3237,19 +3251,19 @@
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50">
+      <c r="A9" s="48">
         <v>363</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="50">
+      <c r="B9" s="54"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="48">
         <v>368</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="50">
+      <c r="E9" s="45"/>
+      <c r="F9" s="48">
         <v>370</v>
       </c>
-      <c r="G9" s="48"/>
+      <c r="G9" s="46"/>
       <c r="J9">
         <v>389</v>
       </c>
@@ -3262,10 +3276,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
-      <c r="B10" s="35"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="2"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="41"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="23"/>
       <c r="G10" s="2"/>
       <c r="J10">
@@ -3282,12 +3296,12 @@
       <c r="A11" s="23">
         <v>425</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="2">
         <v>429</v>
       </c>
       <c r="D11" s="23"/>
-      <c r="E11" s="41"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="23"/>
       <c r="G11" s="2"/>
       <c r="J11">
@@ -3302,10 +3316,10 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
-      <c r="B12" s="35"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="2"/>
       <c r="D12" s="23"/>
-      <c r="E12" s="41"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="23"/>
       <c r="G12" s="2"/>
       <c r="J12">
@@ -3319,16 +3333,16 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49">
+      <c r="A13" s="47">
         <v>485</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="11">
         <v>484</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="49"/>
+      <c r="F13" s="47"/>
       <c r="G13" s="12"/>
       <c r="J13">
         <v>490</v>
@@ -3342,10 +3356,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
-      <c r="B14" s="35"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="2"/>
       <c r="D14" s="23"/>
-      <c r="E14" s="41"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="23"/>
       <c r="G14" s="2"/>
       <c r="J14">
@@ -3359,30 +3373,30 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="51">
+      <c r="A15" s="49">
         <v>526</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="55">
         <v>533</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="43">
         <v>527</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="45">
+      <c r="D15" s="49"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="43">
         <v>549</v>
       </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45">
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43">
         <v>549</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="43">
         <v>521</v>
       </c>
-      <c r="L15" s="45" t="s">
+      <c r="L15" s="43" t="s">
         <v>30</v>
       </c>
       <c r="M15" t="s">
@@ -3393,10 +3407,10 @@
       <c r="A16" s="22">
         <v>556</v>
       </c>
-      <c r="B16" s="34"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="5"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="40">
+      <c r="E16" s="38">
         <v>568</v>
       </c>
       <c r="F16" s="22"/>
@@ -3412,20 +3426,20 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49">
+      <c r="A17" s="47">
         <v>578</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="11">
         <v>574</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="47">
         <v>572</v>
       </c>
       <c r="E17" s="11">
         <v>572</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="47">
         <v>573</v>
       </c>
       <c r="G17" s="12">
@@ -3443,10 +3457,10 @@
     </row>
     <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
-      <c r="B18" s="36"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="1"/>
       <c r="D18" s="24"/>
-      <c r="E18" s="42"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="24"/>
       <c r="G18" s="1"/>
       <c r="J18">
@@ -3460,20 +3474,20 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49">
+      <c r="A19" s="47">
         <v>620</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B19" s="53">
         <v>622</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="49">
+      <c r="D19" s="47">
         <v>623</v>
       </c>
       <c r="E19" s="11">
         <v>620</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="47">
         <v>626</v>
       </c>
       <c r="G19" s="12">
@@ -3485,23 +3499,23 @@
       <c r="K19" s="15">
         <v>610</v>
       </c>
-      <c r="L19" s="94" t="s">
+      <c r="L19" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="94"/>
+      <c r="M19" s="90"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
         <v>660</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="1">
         <v>644</v>
       </c>
       <c r="D20" s="25">
         <v>655</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="41">
         <v>657</v>
       </c>
       <c r="F20" s="25">
@@ -3514,53 +3528,53 @@
       <c r="K20" s="15">
         <v>637.14285714285711</v>
       </c>
-      <c r="L20" s="94" t="s">
+      <c r="L20" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="M20" s="94"/>
+      <c r="M20" s="90"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="51" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="88">
+      <c r="B23" s="84">
         <v>1</v>
       </c>
-      <c r="C23" s="88">
+      <c r="C23" s="84">
         <v>3</v>
       </c>
-      <c r="D23" s="88">
+      <c r="D23" s="84">
         <v>4</v>
       </c>
-      <c r="E23" s="88">
+      <c r="E23" s="84">
         <v>6</v>
       </c>
-      <c r="F23" s="88">
+      <c r="F23" s="84">
         <v>7</v>
       </c>
     </row>
@@ -3572,21 +3586,21 @@
       <c r="B24" s="20">
         <v>204</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="77">
         <v>195</v>
       </c>
       <c r="D24" s="20">
         <v>195</v>
       </c>
       <c r="E24" s="20"/>
-      <c r="F24" s="81">
+      <c r="F24" s="77">
         <v>195</v>
       </c>
-      <c r="G24" s="83">
+      <c r="G24" s="79">
         <v>4</v>
       </c>
-      <c r="I24" s="75"/>
-      <c r="J24" s="72">
+      <c r="I24" s="71"/>
+      <c r="J24" s="68">
         <v>2</v>
       </c>
     </row>
@@ -3595,70 +3609,70 @@
         <f t="shared" ref="A25:A34" si="0">AVERAGE(B25:F25)</f>
         <v>293</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="47">
         <v>285</v>
       </c>
       <c r="C25" s="11">
         <v>302</v>
       </c>
-      <c r="D25" s="49">
+      <c r="D25" s="47">
         <v>287</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="50">
         <v>290</v>
       </c>
       <c r="F25" s="11">
         <v>301</v>
       </c>
-      <c r="G25" s="84">
+      <c r="G25" s="80">
         <v>5</v>
       </c>
-      <c r="I25" s="76"/>
-      <c r="J25" s="73">
+      <c r="I25" s="72"/>
+      <c r="J25" s="69">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="91">
         <f t="shared" si="0"/>
         <v>318.5</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="92">
         <v>321</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23">
+      <c r="C26" s="93"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92">
         <v>316</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="85">
+      <c r="F26" s="93"/>
+      <c r="G26" s="94">
         <v>2</v>
       </c>
-      <c r="I26" s="77"/>
-      <c r="J26" s="73">
+      <c r="I26" s="73"/>
+      <c r="J26" s="69">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="91">
         <f t="shared" si="0"/>
         <v>344</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="22">
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="92">
         <v>334</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="40">
+      <c r="E27" s="92"/>
+      <c r="F27" s="93">
         <v>354</v>
       </c>
-      <c r="G27" s="86">
-        <v>3</v>
-      </c>
-      <c r="I27" s="78"/>
-      <c r="J27" s="74">
+      <c r="G27" s="94">
+        <v>2</v>
+      </c>
+      <c r="I27" s="74"/>
+      <c r="J27" s="70">
         <v>5</v>
       </c>
     </row>
@@ -3667,36 +3681,36 @@
         <f t="shared" si="0"/>
         <v>367</v>
       </c>
-      <c r="B28" s="50">
+      <c r="B28" s="48">
         <v>363</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="50">
+      <c r="C28" s="45"/>
+      <c r="D28" s="48">
         <v>368</v>
       </c>
-      <c r="E28" s="50">
+      <c r="E28" s="48">
         <v>370</v>
       </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="85">
-        <v>2</v>
+      <c r="F28" s="45"/>
+      <c r="G28" s="82">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="91">
         <f t="shared" si="0"/>
         <v>427</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="92">
         <v>425</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="93">
         <v>429</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="85">
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="94">
         <v>2</v>
       </c>
     </row>
@@ -3705,36 +3719,36 @@
         <f t="shared" si="0"/>
         <v>484.5</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="47">
         <v>485</v>
       </c>
       <c r="C30" s="11">
         <v>484</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="85">
+      <c r="G30" s="81">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="91">
         <f t="shared" si="0"/>
         <v>534</v>
       </c>
-      <c r="B31" s="51">
+      <c r="B31" s="92">
         <v>526</v>
       </c>
-      <c r="C31" s="58">
+      <c r="C31" s="93">
         <v>527</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="58">
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="93">
         <v>549</v>
       </c>
-      <c r="G31" s="86">
+      <c r="G31" s="94">
         <v>3</v>
       </c>
     </row>
@@ -3743,22 +3757,22 @@
         <f t="shared" si="0"/>
         <v>574</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="47">
         <v>578</v>
       </c>
       <c r="C32" s="11">
         <v>574</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="47">
         <v>572</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="47">
         <v>573</v>
       </c>
       <c r="F32" s="11">
         <v>573</v>
       </c>
-      <c r="G32" s="84">
+      <c r="G32" s="80">
         <v>5</v>
       </c>
     </row>
@@ -3767,20 +3781,20 @@
         <f t="shared" si="0"/>
         <v>621.75</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="47">
         <v>620</v>
       </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="49">
+      <c r="D33" s="47">
         <v>623</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="47">
         <v>626</v>
       </c>
       <c r="F33" s="11">
         <v>618</v>
       </c>
-      <c r="G33" s="87">
+      <c r="G33" s="83">
         <v>4</v>
       </c>
     </row>
@@ -3792,7 +3806,7 @@
       <c r="B34" s="25">
         <v>660</v>
       </c>
-      <c r="C34" s="82">
+      <c r="C34" s="78">
         <v>644</v>
       </c>
       <c r="D34" s="25">
@@ -3801,8 +3815,8 @@
       <c r="E34" s="25">
         <v>657</v>
       </c>
-      <c r="F34" s="82"/>
-      <c r="G34" s="83">
+      <c r="F34" s="78"/>
+      <c r="G34" s="79">
         <v>4</v>
       </c>
     </row>
@@ -3818,104 +3832,271 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="89">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="85">
         <v>206.33333333333334</v>
       </c>
-      <c r="B1" s="88">
+      <c r="B1" s="84">
         <v>197.25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="89">
+      <c r="E1" s="20">
+        <v>207</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="8">
+        <v>211</v>
+      </c>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="85">
         <v>296</v>
       </c>
-      <c r="B2" s="88">
+      <c r="B2" s="84">
         <v>293</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="89">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="85">
         <v>315.5</v>
       </c>
-      <c r="B3" s="88">
+      <c r="B3" s="84">
         <v>318.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="89">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="85">
         <v>356</v>
       </c>
-      <c r="B4" s="88">
+      <c r="B4" s="84">
         <v>344</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="89">
+      <c r="E4" s="50">
+        <v>285</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="50">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="85">
         <v>368.66666666666669</v>
       </c>
-      <c r="B5" s="88">
+      <c r="B5" s="84">
         <v>367</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="89">
+      <c r="E5" s="23">
+        <v>316</v>
+      </c>
+      <c r="F5" s="23">
+        <v>315</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="23">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="85">
         <v>432</v>
       </c>
-      <c r="B6" s="88">
+      <c r="B6" s="84">
         <v>427</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="89">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="4">
+        <v>347</v>
+      </c>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="85">
         <v>461.5</v>
       </c>
-      <c r="B7" s="88"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="89">
+      <c r="B7" s="84"/>
+      <c r="E7" s="47">
+        <v>368</v>
+      </c>
+      <c r="F7" s="47">
+        <v>368</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="48">
+        <v>370</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="85">
         <v>489.5</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="84">
         <v>484.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
-      <c r="B9" s="88">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="85"/>
+      <c r="B9" s="84">
         <v>534</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="89">
+      <c r="E9" s="23">
+        <v>433</v>
+      </c>
+      <c r="F9" s="23">
+        <v>431</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="23"/>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="85">
         <v>576.79999999999995</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="84">
         <v>574</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="89">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="85">
         <v>619.6</v>
       </c>
-      <c r="B11" s="88">
+      <c r="B11" s="84">
         <v>621.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="89">
+      <c r="E11" s="50">
+        <v>491</v>
+      </c>
+      <c r="F11" s="47">
+        <v>488</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="47"/>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="85">
         <v>654.33333333333337</v>
       </c>
-      <c r="B12" s="88">
+      <c r="B12" s="84">
         <v>654</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="2">
+        <v>500</v>
+      </c>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="47">
+        <v>574</v>
+      </c>
+      <c r="F15" s="47">
+        <v>573</v>
+      </c>
+      <c r="G15" s="12">
+        <v>580</v>
+      </c>
+      <c r="H15" s="47">
+        <v>573</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="47">
+        <v>616</v>
+      </c>
+      <c r="F17" s="47">
+        <v>618</v>
+      </c>
+      <c r="G17" s="12">
+        <v>620</v>
+      </c>
+      <c r="H17" s="47">
+        <v>626</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="25">
+        <v>654</v>
+      </c>
+      <c r="F18" s="25">
+        <v>654</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3927,7 +4108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E644F525-7B4D-45F2-A316-E8875CE95B6C}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
